--- a/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,06; 33,71</t>
+          <t>27,22; 33,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,59; 33,81</t>
+          <t>26,17; 33,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,66; 42,23</t>
+          <t>35,93; 42,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,32; 39,8</t>
+          <t>34,56; 40,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,98; 37,62</t>
+          <t>32,91; 37,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,07; 36,31</t>
+          <t>31,99; 36,37</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 17,88</t>
+          <t>14,62; 18,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 12,67</t>
+          <t>9,87; 12,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 21,49</t>
+          <t>17,88; 21,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 13,72</t>
+          <t>10,34; 13,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,62; 19,29</t>
+          <t>16,64; 19,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 12,8</t>
+          <t>10,57; 12,84</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 14,28</t>
+          <t>8,57; 14,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,77</t>
+          <t>6,99; 11,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,2</t>
+          <t>6,81; 12,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,65</t>
+          <t>6,82; 10,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,4; 12,3</t>
+          <t>8,25; 12,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,28</t>
+          <t>7,48; 10,44</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,33; 19,98</t>
+          <t>17,04; 19,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,45; 14,98</t>
+          <t>12,38; 15,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,92; 24,88</t>
+          <t>21,91; 25,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 18,2</t>
+          <t>14,88; 18,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,88; 21,99</t>
+          <t>20,03; 22,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,25</t>
+          <t>14,49; 16,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,22; 33,39</t>
+          <t>27,04; 33,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,93; 42,14</t>
+          <t>35,67; 42,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,91; 37,74</t>
+          <t>32,89; 37,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 18,05</t>
+          <t>14,58; 17,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,88; 21,42</t>
+          <t>17,69; 21,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 19,03</t>
+          <t>16,61; 19,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 14,23</t>
+          <t>8,61; 14,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 12,13</t>
+          <t>6,97; 12,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,15</t>
+          <t>8,34; 12,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 19,94</t>
+          <t>17,14; 19,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 25,0</t>
+          <t>22,01; 25,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,03; 22,02</t>
+          <t>20,05; 22,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,04; 33,75</t>
+          <t>27,06; 33,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,17; 33,8</t>
+          <t>26,59; 33,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,67; 42,19</t>
+          <t>35,66; 42,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,56; 40,05</t>
+          <t>34,32; 39,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,89; 37,56</t>
+          <t>32,98; 37,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,99; 36,37</t>
+          <t>32,07; 36,31</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 17,87</t>
+          <t>14,54; 17,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,87; 12,61</t>
+          <t>9,69; 12,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,69; 21,45</t>
+          <t>17,96; 21,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,34; 13,67</t>
+          <t>10,35; 13,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 19,06</t>
+          <t>16,62; 19,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 12,84</t>
+          <t>10,56; 12,8</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 14,31</t>
+          <t>8,63; 14,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,64</t>
+          <t>6,68; 11,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 12,02</t>
+          <t>6,6; 12,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 10,5</t>
+          <t>6,81; 10,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 12,22</t>
+          <t>8,4; 12,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,48; 10,44</t>
+          <t>7,33; 10,28</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,14; 19,79</t>
+          <t>17,33; 19,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,38; 15,01</t>
+          <t>12,45; 14,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,01; 25,02</t>
+          <t>21,92; 24,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,88; 18,04</t>
+          <t>15,36; 18,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 22,02</t>
+          <t>19,88; 21,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 16,32</t>
+          <t>14,32; 16,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>33,41%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,59; 33,81</t>
+          <t>25,88; 32,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,32; 39,8</t>
+          <t>33,66; 38,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,07; 36,31</t>
+          <t>31,17; 35,48</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 12,67</t>
+          <t>6,92; 11,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 13,72</t>
+          <t>8,13; 12,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 12,8</t>
+          <t>8,31; 11,7</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,77</t>
+          <t>6,57; 11,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,65</t>
+          <t>6,65; 10,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,28</t>
+          <t>7,22; 10,13</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>14,12%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,45; 14,98</t>
+          <t>9,75; 13,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 18,2</t>
+          <t>12,94; 17,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,25</t>
+          <t>12,17; 15,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,06; 33,71</t>
+          <t>26,97; 33,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,88; 32,94</t>
+          <t>25,85; 33,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,66; 42,23</t>
+          <t>35,78; 42,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,66; 38,91</t>
+          <t>33,98; 39,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,98; 37,62</t>
+          <t>32,78; 37,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,17; 35,48</t>
+          <t>31,42; 35,58</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 17,88</t>
+          <t>14,51; 17,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,58</t>
+          <t>6,66; 11,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 21,49</t>
+          <t>17,75; 21,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,84</t>
+          <t>8,08; 12,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,62; 19,29</t>
+          <t>16,67; 19,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 11,7</t>
+          <t>8,45; 11,76</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 14,28</t>
+          <t>8,72; 14,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>6,54; 11,26</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>6,57; 11,7</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 12,2</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,36</t>
+          <t>6,55; 10,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,4; 12,3</t>
+          <t>8,49; 12,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,13</t>
+          <t>7,2; 10,01</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,33; 19,98</t>
+          <t>17,24; 19,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 13,92</t>
+          <t>9,66; 13,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,92; 24,88</t>
+          <t>21,88; 24,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,94; 17,08</t>
+          <t>12,75; 17,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,88; 21,99</t>
+          <t>20,03; 22,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 15,25</t>
+          <t>11,9; 15,21</t>
         </is>
       </c>
     </row>
@@ -928,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>227544</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>148042</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>386626</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>269794</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>614170</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>417836</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>202909; 252653</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>131139; 167716</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>354566; 416353</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>252543; 290687</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>571381; 655066</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>392920; 444890</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>334477</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>223482</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>387113</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>245496</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>721590</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>468977</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>299821; 370463</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>152459; 259949</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>351268; 423256</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>180185; 287943</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>674329; 770985</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>381681; 531592</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61210</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57168</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>49650</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54613</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>110860</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>111782</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>47520; 78975</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42257; 72750</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35848; 63853</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43116; 66939</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>92640; 133882</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>93872; 130621</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>623231</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>428692</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>823389</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>569903</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1446620</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>998594</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>579798; 667515</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>332307; 478277</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>769112; 871063</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>463279; 626063</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1378317; 1520852</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>841638; 1076191</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>